--- a/DIV2_Analysis/ComparedResults/DIV2_Tables.xlsx
+++ b/DIV2_Analysis/ComparedResults/DIV2_Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\DIV2_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A52CF-4791-41E6-B8BB-8AF027FA441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF74C3A-64E4-401B-B3A5-F9E28C56C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,8 +1236,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1259,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>566.66</v>
+        <v>2641.24</v>
       </c>
       <c r="C2" s="2">
-        <v>1631.5</v>
+        <v>1152.02</v>
       </c>
       <c r="D2" s="4">
-        <v>-1064.8399999999999</v>
+        <v>-1489.22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>6639</v>
+        <v>13278.34</v>
       </c>
       <c r="C3" s="2">
-        <v>5817.16</v>
+        <v>13893.26</v>
       </c>
       <c r="D3" s="3">
-        <v>821.83</v>
+        <v>614.91999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1245.8499999999999</v>
+        <v>2024.62</v>
       </c>
       <c r="C4" s="2">
-        <v>1239.97</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.88</v>
+        <v>1852.16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-172.46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>7408.82</v>
+        <v>13231.05</v>
       </c>
       <c r="C5" s="2">
-        <v>6077.61</v>
+        <v>14843.35</v>
       </c>
       <c r="D5" s="3">
-        <v>1331.21</v>
+        <v>1612.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>2548.19</v>
+        <v>4626.1000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>3422</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-873.8</v>
+        <v>6237.46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1611.36</v>
       </c>
     </row>
   </sheetData>

--- a/DIV2_Analysis/ComparedResults/DIV2_Tables.xlsx
+++ b/DIV2_Analysis/ComparedResults/DIV2_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\DIV2_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF74C3A-64E4-401B-B3A5-F9E28C56C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B4E81-061D-4B8C-90A8-C601D887F74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>CHANGE</t>
   </si>
   <si>
-    <t>Increased</t>
+    <t>Decreased</t>
   </si>
   <si>
     <t>PARTNER</t>
@@ -90,12 +90,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -114,14 +114,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,13 +489,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>32997.75</v>
+        <v>27650.48</v>
       </c>
       <c r="B2" s="2">
-        <v>31324.75</v>
+        <v>32802.78</v>
       </c>
       <c r="C2" s="2">
-        <v>1673</v>
+        <v>-5152.3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-0.53</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,10 +556,10 @@
         <v>0.98</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D3" s="3">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.27</v>
+        <v>0.81</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.04</v>
+      <c r="D5" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-0.01</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -645,10 +645,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>99.22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,13 +656,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>99.08</v>
+        <v>99.72</v>
       </c>
       <c r="C3" s="2">
-        <v>99.12</v>
+        <v>98.21</v>
       </c>
       <c r="D3" s="3">
-        <v>0.04</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,13 +670,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>92.71</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>96.88</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,13 +684,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>82.28</v>
+        <v>96.43</v>
       </c>
       <c r="C5" s="2">
-        <v>96.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>14.23</v>
+        <v>99.56</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>76.510000000000005</v>
+        <v>74.88</v>
       </c>
       <c r="C6" s="2">
-        <v>93.47</v>
-      </c>
-      <c r="D6" s="3">
-        <v>16.96</v>
+        <v>95.36</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20.48</v>
       </c>
     </row>
   </sheetData>
@@ -745,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>2.02</v>
+        <v>0.85</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="D2" s="4">
-        <v>-2.02</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>2.04</v>
+        <v>3.41</v>
       </c>
       <c r="C3" s="2">
-        <v>3.55</v>
+        <v>1.59</v>
       </c>
       <c r="D3" s="3">
-        <v>1.51</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="D4" s="4">
-        <v>-1.25</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1.76</v>
+        <v>7.41</v>
       </c>
       <c r="C5" s="2">
-        <v>1.93</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.17</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.88</v>
+        <v>3.87</v>
       </c>
       <c r="C6" s="2">
-        <v>1.61</v>
+        <v>0.54</v>
       </c>
       <c r="D6" s="3">
-        <v>0.74</v>
+        <v>-3.33</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>96.14</v>
+        <v>94.34</v>
       </c>
       <c r="C2" s="2">
-        <v>92.77</v>
+        <v>96.6</v>
       </c>
       <c r="D2" s="4">
-        <v>-3.37</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>91.79</v>
+        <v>88.07</v>
       </c>
       <c r="C3" s="2">
-        <v>83.63</v>
+        <v>88.54</v>
       </c>
       <c r="D3" s="4">
-        <v>-8.16</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>96.29</v>
+        <v>95.59</v>
       </c>
       <c r="C4" s="2">
-        <v>94.81</v>
+        <v>99.23</v>
       </c>
       <c r="D4" s="4">
-        <v>-1.48</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>79.349999999999994</v>
+        <v>93.46</v>
       </c>
       <c r="C5" s="2">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-9.85</v>
+        <v>73.78</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-19.68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>87.66</v>
+        <v>82.07</v>
       </c>
       <c r="C6" s="2">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-11.4</v>
+        <v>73.180000000000007</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-8.89</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>40.159999999999997</v>
+        <v>50.18</v>
       </c>
       <c r="C2" s="2">
-        <v>24.35</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-15.81</v>
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>30.71</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>26.38</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-4.33</v>
+        <v>12.93</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-37.07</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,13 +993,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>140</v>
+        <v>18.04</v>
       </c>
       <c r="C5" s="2">
         <v>140</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5" s="4">
+        <v>121.96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>55.01</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
         <v>70</v>
       </c>
-      <c r="D6" s="3">
-        <v>14.99</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1068,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>70</v>
+        <v>74.11</v>
       </c>
       <c r="C3" s="2">
-        <v>65.48</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-4.5199999999999996</v>
+        <v>63.66</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-10.45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>111.83</v>
       </c>
       <c r="C6" s="2">
-        <v>36.97</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3">
-        <v>36.97</v>
+        <v>-75.83</v>
       </c>
     </row>
   </sheetData>
@@ -1157,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-0.32</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>0.97</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.26</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5" s="4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.98</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.45</v>
+      <c r="D6" s="4">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1244,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1258,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>2641.24</v>
+        <v>3264.97</v>
       </c>
       <c r="C2" s="2">
-        <v>1152.02</v>
+        <v>3266.41</v>
       </c>
       <c r="D2" s="4">
-        <v>-1489.22</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>13278.34</v>
+        <v>14217.52</v>
       </c>
       <c r="C3" s="2">
-        <v>13893.26</v>
+        <v>12483.15</v>
       </c>
       <c r="D3" s="3">
-        <v>614.91999999999996</v>
+        <v>-1734.37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>2024.62</v>
+        <v>1937.6</v>
       </c>
       <c r="C4" s="2">
-        <v>1852.16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-172.46</v>
+        <v>1210.29</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-727.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>13231.05</v>
+        <v>3228.29</v>
       </c>
       <c r="C5" s="2">
-        <v>14843.35</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1612.3</v>
+        <v>15723.99</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12495.7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>4626.1000000000004</v>
+        <v>9767.11</v>
       </c>
       <c r="C6" s="2">
-        <v>6237.46</v>
+        <v>7010.5</v>
       </c>
       <c r="D6" s="3">
-        <v>1611.36</v>
+        <v>-2756.61</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1364,10 @@
         <v>618</v>
       </c>
       <c r="C2" s="2">
-        <v>618</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>643</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>1236</v>
       </c>
       <c r="C3" s="2">
-        <v>1236</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>1286</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,10 +1392,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="2">
-        <v>618</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>643</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>1228</v>
       </c>
       <c r="C5" s="2">
-        <v>1228</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+        <v>771.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>456.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>460.5</v>
+        <v>614</v>
       </c>
       <c r="C6" s="2">
-        <v>460.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>643</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-29</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>500</v>
+        <v>45.5</v>
       </c>
       <c r="D3" s="3">
-        <v>95</v>
+        <v>-45.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="4">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>663.5</v>
       </c>
       <c r="D5" s="3">
-        <v>130</v>
+        <v>-613.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D6" s="3">
-        <v>95</v>
+        <v>-69.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1581,13 +1581,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>97.88</v>
+        <v>99.52</v>
       </c>
       <c r="C3" s="2">
-        <v>99.05</v>
+        <v>96.54</v>
       </c>
       <c r="D3" s="3">
-        <v>1.17</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>89.78</v>
+        <v>91.43</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10.220000000000001</v>
+        <v>95.33</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>70.099999999999994</v>
+        <v>99.66</v>
       </c>
       <c r="C5" s="2">
-        <v>97.77</v>
+        <v>99.21</v>
       </c>
       <c r="D5" s="3">
-        <v>27.66</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>95.95</v>
+        <v>87.5</v>
       </c>
       <c r="C6" s="2">
-        <v>85.47</v>
+        <v>91.35</v>
       </c>
       <c r="D6" s="4">
-        <v>-10.48</v>
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>
@@ -1670,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>2.04</v>
+        <v>0.88</v>
       </c>
       <c r="C2" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.08</v>
+        <v>2.31</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="C3" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.47</v>
+        <v>1.53</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1.39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="C4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-2.4500000000000002</v>
+        <v>1.96</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1.1599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,13 +1712,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5</v>
+        <v>3.45</v>
       </c>
       <c r="C5" s="2">
-        <v>0.56999999999999995</v>
+        <v>1.07</v>
       </c>
       <c r="D5" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1.88</v>
+        <v>3.57</v>
       </c>
       <c r="C6" s="2">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="D6" s="3">
-        <v>0.84</v>
+        <v>-0.94</v>
       </c>
     </row>
   </sheetData>
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>92.58</v>
+        <v>95.32</v>
       </c>
       <c r="C2" s="2">
-        <v>96.74</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4.16</v>
+        <v>96.57</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,13 +1787,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>89.6</v>
+        <v>89.03</v>
       </c>
       <c r="C3" s="2">
-        <v>88.94</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.66</v>
+        <v>86.86</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>95.66</v>
+        <v>88.15</v>
       </c>
       <c r="C4" s="2">
-        <v>95.66</v>
+        <v>90.34</v>
       </c>
       <c r="D4" s="4">
-        <v>-0.01</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,13 +1815,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>75.88</v>
+        <v>79.37</v>
       </c>
       <c r="C5" s="2">
-        <v>79.12</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="D5" s="3">
-        <v>3.25</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>82.93</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C6" s="2">
-        <v>76.55</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-6.39</v>
+        <v>79.11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1.78</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1876,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>50.01</v>
+      </c>
+      <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="C2" s="2">
-        <v>23.63</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-26.37</v>
+      <c r="D2" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +1904,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>45.44</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>50.22</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.78</v>
+        <v>40.46</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20.54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>36.71</v>
+        <v>64.97</v>
       </c>
       <c r="C3" s="2">
-        <v>50.32</v>
+        <v>61.35</v>
       </c>
       <c r="D3" s="3">
-        <v>13.61</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +2021,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>71.94</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="C5" s="2">
-        <v>69.739999999999995</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4">
-        <v>-2.2000000000000002</v>
+        <v>44.27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>26.74</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
-        <v>13.74</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-13</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/DIV2_Analysis/ComparedResults/DIV2_Tables.xlsx
+++ b/DIV2_Analysis/ComparedResults/DIV2_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV2 Payroll Analysis\DIV2_Analysis\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV2\DIV2_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B4E81-061D-4B8C-90A8-C601D887F74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F7C27A-C25D-4D1F-8E9B-49B008FB21AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>CHANGE</t>
   </si>
   <si>
-    <t>Decreased</t>
+    <t>Increased</t>
   </si>
   <si>
     <t>PARTNER</t>
@@ -90,12 +90,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -114,14 +114,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,13 +489,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>27650.48</v>
+        <v>32997.75</v>
       </c>
       <c r="B2" s="2">
-        <v>32802.78</v>
+        <v>31324.75</v>
       </c>
       <c r="C2" s="2">
-        <v>-5152.3</v>
+        <v>1673</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>47.26</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-52.74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>0.98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>0.96</v>
+        <v>98.17</v>
       </c>
       <c r="D3" s="3">
-        <v>-0.02</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>83.7</v>
       </c>
       <c r="C4" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.41</v>
+        <v>56.8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>26.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.8</v>
+        <v>99.88</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.2</v>
+        <v>96.34</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>98.52</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1.48</v>
       </c>
     </row>
   </sheetData>
@@ -645,10 +645,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>99.22</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-0.78</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,13 +656,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>99.72</v>
+        <v>99.12</v>
       </c>
       <c r="C3" s="2">
-        <v>98.21</v>
+        <v>99.08</v>
       </c>
       <c r="D3" s="3">
-        <v>-1.51</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,13 +670,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>92.71</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>96.88</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4.17</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,13 +684,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>96.43</v>
+        <v>96.5</v>
       </c>
       <c r="C5" s="2">
-        <v>99.56</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.13</v>
+        <v>82.28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14.23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>74.88</v>
+        <v>93.47</v>
       </c>
       <c r="C6" s="2">
-        <v>95.36</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20.48</v>
+        <v>76.510000000000005</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16.96</v>
       </c>
     </row>
   </sheetData>
@@ -745,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>3.91</v>
+        <v>2.02</v>
       </c>
       <c r="D2" s="4">
-        <v>3.05</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="C3" s="2">
-        <v>1.59</v>
+        <v>2.04</v>
       </c>
       <c r="D3" s="3">
-        <v>-1.81</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3.23</v>
+        <v>1.25</v>
       </c>
       <c r="D4" s="4">
-        <v>0.98</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>7.41</v>
+        <v>1.93</v>
       </c>
       <c r="C5" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="D5" s="3">
-        <v>-6.29</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>3.87</v>
+        <v>1.61</v>
       </c>
       <c r="C6" s="2">
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
       <c r="D6" s="3">
-        <v>-3.33</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>94.34</v>
+        <v>92.77</v>
       </c>
       <c r="C2" s="2">
-        <v>96.6</v>
+        <v>96.14</v>
       </c>
       <c r="D2" s="4">
-        <v>2.2599999999999998</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>88.07</v>
+        <v>83.63</v>
       </c>
       <c r="C3" s="2">
-        <v>88.54</v>
+        <v>91.79</v>
       </c>
       <c r="D3" s="4">
-        <v>0.47</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>95.59</v>
+        <v>94.81</v>
       </c>
       <c r="C4" s="2">
-        <v>99.23</v>
+        <v>96.29</v>
       </c>
       <c r="D4" s="4">
-        <v>3.64</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>93.46</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="C5" s="2">
-        <v>73.78</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-19.68</v>
+        <v>79.349999999999994</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-9.85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>82.07</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="C6" s="2">
-        <v>73.180000000000007</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-8.89</v>
+        <v>87.66</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-11.4</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>50.18</v>
+        <v>24.35</v>
       </c>
       <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-0.18</v>
+        <v>40.159999999999997</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-15.81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>50</v>
+        <v>26.38</v>
       </c>
       <c r="C4" s="2">
-        <v>12.93</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-37.07</v>
+        <v>30.71</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-4.33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,13 +993,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>18.04</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2">
         <v>140</v>
       </c>
-      <c r="D5" s="4">
-        <v>121.96</v>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,10 +1010,10 @@
         <v>70</v>
       </c>
       <c r="C6" s="2">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>55.01</v>
+      </c>
+      <c r="D6" s="3">
+        <v>14.99</v>
       </c>
     </row>
   </sheetData>
@@ -1068,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>74.11</v>
+        <v>65.48</v>
       </c>
       <c r="C3" s="2">
-        <v>63.66</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-10.45</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-4.5199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D5" s="4">
-        <v>80</v>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>111.83</v>
+        <v>36.97</v>
       </c>
       <c r="C6" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>-75.83</v>
+        <v>36.97</v>
       </c>
     </row>
   </sheetData>
@@ -1157,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>48.7</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>80.319999999999993</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-31.62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1171,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.03</v>
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>43.97</v>
       </c>
       <c r="C4" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.74</v>
+        <v>51.18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-7.22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.92</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.02</v>
+        <v>55.01</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44.99</v>
       </c>
     </row>
   </sheetData>
@@ -1258,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>3264.97</v>
+        <v>1152.02</v>
       </c>
       <c r="C2" s="2">
-        <v>3266.41</v>
+        <v>2641.24</v>
       </c>
       <c r="D2" s="4">
-        <v>1.44</v>
+        <v>-1489.22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>14217.52</v>
+        <v>13893.26</v>
       </c>
       <c r="C3" s="2">
-        <v>12483.15</v>
+        <v>13278.34</v>
       </c>
       <c r="D3" s="3">
-        <v>-1734.37</v>
+        <v>614.91999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1937.6</v>
+        <v>1852.16</v>
       </c>
       <c r="C4" s="2">
-        <v>1210.29</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-727.3</v>
+        <v>2024.62</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-172.46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>3228.29</v>
+        <v>14843.35</v>
       </c>
       <c r="C5" s="2">
-        <v>15723.99</v>
-      </c>
-      <c r="D5" s="4">
-        <v>12495.7</v>
+        <v>13231.05</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1612.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>9767.11</v>
+        <v>6237.46</v>
       </c>
       <c r="C6" s="2">
-        <v>7010.5</v>
+        <v>4626.1000000000004</v>
       </c>
       <c r="D6" s="3">
-        <v>-2756.61</v>
+        <v>1611.36</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1364,10 @@
         <v>618</v>
       </c>
       <c r="C2" s="2">
-        <v>643</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-25</v>
+        <v>618</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>1236</v>
       </c>
       <c r="C3" s="2">
-        <v>1286</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-50</v>
+        <v>1236</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,10 +1392,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="2">
-        <v>643</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-25</v>
+        <v>618</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>1228</v>
       </c>
       <c r="C5" s="2">
-        <v>771.6</v>
-      </c>
-      <c r="D5" s="4">
-        <v>456.4</v>
+        <v>1228</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>614</v>
+        <v>460.5</v>
       </c>
       <c r="C6" s="2">
-        <v>643</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-29</v>
+        <v>460.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="C3" s="2">
-        <v>45.5</v>
+        <v>500</v>
       </c>
       <c r="D3" s="3">
-        <v>-45.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <v>75</v>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2">
-        <v>663.5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>-613.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
-        <v>69.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>-69.400000000000006</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1581,13 +1581,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>99.52</v>
+        <v>99.05</v>
       </c>
       <c r="C3" s="2">
-        <v>96.54</v>
+        <v>97.88</v>
       </c>
       <c r="D3" s="3">
-        <v>-2.97</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>91.43</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>95.33</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.9</v>
+        <v>89.78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>99.66</v>
+        <v>97.77</v>
       </c>
       <c r="C5" s="2">
-        <v>99.21</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D5" s="3">
-        <v>-0.45</v>
+        <v>27.66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>87.5</v>
+        <v>85.47</v>
       </c>
       <c r="C6" s="2">
-        <v>91.35</v>
+        <v>95.95</v>
       </c>
       <c r="D6" s="4">
-        <v>3.85</v>
+        <v>-10.48</v>
       </c>
     </row>
   </sheetData>
@@ -1670,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.88</v>
+        <v>3.12</v>
       </c>
       <c r="C2" s="2">
-        <v>2.31</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.42</v>
+        <v>2.04</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>2.92</v>
+        <v>3.58</v>
       </c>
       <c r="C3" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-1.39</v>
+        <v>4.05</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>3.12</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1.1599999999999999</v>
+        <v>3.25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-2.4500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,13 +1712,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>3.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C5" s="2">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="3">
-        <v>-2.38</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>3.57</v>
+        <v>2.72</v>
       </c>
       <c r="C6" s="2">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="D6" s="3">
-        <v>-0.94</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>95.32</v>
+        <v>96.74</v>
       </c>
       <c r="C2" s="2">
-        <v>96.57</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.25</v>
+        <v>92.58</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,13 +1787,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>89.03</v>
+        <v>88.94</v>
       </c>
       <c r="C3" s="2">
-        <v>86.86</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-2.17</v>
+        <v>89.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>88.15</v>
+        <v>95.66</v>
       </c>
       <c r="C4" s="2">
-        <v>90.34</v>
+        <v>95.66</v>
       </c>
       <c r="D4" s="4">
-        <v>2.1800000000000002</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,13 +1815,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>79.37</v>
+        <v>79.12</v>
       </c>
       <c r="C5" s="2">
-        <v>72.569999999999993</v>
+        <v>75.88</v>
       </c>
       <c r="D5" s="3">
-        <v>-6.8</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>80.900000000000006</v>
+        <v>76.55</v>
       </c>
       <c r="C6" s="2">
-        <v>79.11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1.78</v>
+        <v>82.93</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-6.39</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1876,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>50.01</v>
+        <v>23.63</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="D2" s="3">
-        <v>-0.01</v>
+      <c r="D2" s="4">
+        <v>-26.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +1904,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>19.920000000000002</v>
+        <v>50.22</v>
       </c>
       <c r="C4" s="2">
-        <v>40.46</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20.54</v>
+        <v>45.44</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>64.97</v>
+        <v>50.32</v>
       </c>
       <c r="C3" s="2">
-        <v>61.35</v>
+        <v>36.71</v>
       </c>
       <c r="D3" s="3">
-        <v>-3.62</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +2021,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>35.729999999999997</v>
+        <v>69.739999999999995</v>
       </c>
       <c r="C5" s="2">
-        <v>80</v>
+        <v>71.94</v>
       </c>
       <c r="D5" s="4">
-        <v>44.27</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>35</v>
+        <v>13.74</v>
       </c>
       <c r="C6" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-4</v>
+        <v>26.74</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
